--- a/APP/API/Excel/plantillasEXCEL/companies.xlsx
+++ b/APP/API/Excel/plantillasEXCEL/companies.xlsx
@@ -313,7 +313,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
